--- a/v0.7.1/StructureDefinition-HCXDiagnosticDocumentsExtension.xlsx
+++ b/v0.7.1/StructureDefinition-HCXDiagnosticDocumentsExtension.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="171">
   <si>
     <t>Property</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1032,7 +1036,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>20</v>
@@ -1098,7 +1102,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -1109,10 +1113,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1123,7 +1127,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1135,13 +1139,13 @@
         <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1192,13 +1196,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1207,15 +1211,15 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1238,13 +1242,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1283,19 +1287,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1307,7 +1311,7 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1315,20 +1319,20 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
@@ -1343,13 +1347,13 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1400,7 +1404,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1412,7 +1416,7 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1420,10 +1424,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1434,7 +1438,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1446,13 +1450,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1503,13 +1507,13 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
@@ -1518,19 +1522,19 @@
         <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1549,16 +1553,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1596,19 +1600,19 @@
         <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1620,18 +1624,18 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1639,10 +1643,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -1654,16 +1658,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1671,7 +1675,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>75</v>
@@ -1713,13 +1717,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -1728,15 +1732,15 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1744,10 +1748,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1759,13 +1763,13 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1792,11 +1796,11 @@
         <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>75</v>
@@ -1814,33 +1818,33 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
@@ -1850,7 +1854,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1862,13 +1866,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1919,7 +1923,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1931,7 +1935,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -1939,10 +1943,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1953,7 +1957,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1965,13 +1969,13 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2022,13 +2026,13 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
@@ -2037,19 +2041,19 @@
         <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2068,16 +2072,16 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2115,19 +2119,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2139,18 +2143,18 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2158,10 +2162,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2173,16 +2177,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2190,7 +2194,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2232,13 +2236,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2247,15 +2251,15 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2263,10 +2267,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2278,13 +2282,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2335,33 +2339,33 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
@@ -2383,13 +2387,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2440,7 +2444,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2452,7 +2456,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -2460,10 +2464,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2474,7 +2478,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2486,13 +2490,13 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2543,13 +2547,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -2558,19 +2562,19 @@
         <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2589,16 +2593,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2636,19 +2640,19 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2660,18 +2664,18 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2679,10 +2683,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -2694,16 +2698,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2711,7 +2715,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>75</v>
@@ -2753,13 +2757,13 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
@@ -2768,15 +2772,15 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2784,10 +2788,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -2799,13 +2803,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2832,13 +2836,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -2856,33 +2860,33 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>75</v>
@@ -2892,7 +2896,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -2904,13 +2908,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2961,7 +2965,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2973,7 +2977,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -2981,10 +2985,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2995,7 +2999,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3007,13 +3011,13 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3064,13 +3068,13 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
@@ -3079,19 +3083,19 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3110,16 +3114,16 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3157,19 +3161,19 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3181,18 +3185,18 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3200,10 +3204,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3215,16 +3219,16 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3232,7 +3236,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
@@ -3274,13 +3278,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -3289,15 +3293,15 @@
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3305,10 +3309,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3320,13 +3324,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3353,11 +3357,11 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -3375,33 +3379,33 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>75</v>
@@ -3411,7 +3415,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -3423,13 +3427,13 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3480,7 +3484,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3492,7 +3496,7 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
@@ -3500,10 +3504,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3514,7 +3518,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -3526,13 +3530,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3583,13 +3587,13 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
@@ -3598,19 +3602,19 @@
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -3629,16 +3633,16 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3676,19 +3680,19 @@
         <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3700,18 +3704,18 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3719,10 +3723,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -3734,16 +3738,16 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -3751,7 +3755,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>75</v>
@@ -3793,13 +3797,13 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -3808,15 +3812,15 @@
         <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3824,10 +3828,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -3839,13 +3843,13 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3896,30 +3900,30 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3927,10 +3931,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -3942,16 +3946,16 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4001,13 +4005,13 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
@@ -4016,15 +4020,15 @@
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4047,13 +4051,13 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4104,22 +4108,22 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
